--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-G500.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-G500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204F850-A03B-4364-B8A4-25084D6B06B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953AB22-E664-4991-BC36-B0FB5BA390E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="3180" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>datasets</t>
   </si>
@@ -188,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,7 +216,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,18 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7EDBBF-418F-4CF1-A20E-A97D92075551}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
@@ -544,67 +549,67 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>3966418</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.289E-3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1.114E-3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>5.71E-4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>5.7300000000000005E-4</v>
       </c>
-      <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2:G11">C2:C11/D2:D11</f>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2:G9">C2:C9/D2:D9</f>
         <v>1.1570915619389588</v>
       </c>
-      <c r="H2" s="1" cm="1">
-        <f t="array" ref="H2:H11">C2:C11/E2:E11</f>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:H9">C2:C9/E2:E9</f>
         <v>2.2574430823117337</v>
       </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2:I11">C2:C11/F2:F11</f>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:I9">C2:C9/F2:F9</f>
         <v>2.2495636998254795</v>
       </c>
       <c r="J2" cm="1">
-        <f t="array" ref="J2:J19">C2:C19/C2:C19</f>
+        <f t="array" ref="J2:J17">C2:C17/C2:C17</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>20219754</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>5.0740000000000004E-3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>4.4770000000000001E-3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2.5019999999999999E-3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>2.294E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>1.1333482242573152</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>2.0279776179056759</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2.2118570183086312</v>
       </c>
       <c r="J3">
@@ -612,63 +617,63 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>95652855</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0709999999999999E-2</v>
+        <v>2.5590999999999999E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>2.3151000000000001E-2</v>
+        <v>2.2459E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>8.0070000000000002E-3</v>
+        <v>1.3488999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>1.2272E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.89456178998747349</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.5864868240289747</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.6875814863102998</v>
+        <v>1.2814000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.1394541163898659</v>
+      </c>
+      <c r="H4">
+        <v>1.8971754763140336</v>
+      </c>
+      <c r="I4">
+        <v>1.9971125331668487</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>420642337</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>7.0523000000000002E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>6.0366999999999997E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>3.8386999999999998E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>3.3562000000000002E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>1.1682376132655259</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1.8371584130044027</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>2.1012752517728384</v>
       </c>
       <c r="J5">
@@ -676,31 +681,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1726926306</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.20536299999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0.179816</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>0.11662</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>0.110831</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>1.142073007963696</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1.7609586691819583</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>1.8529382573467712</v>
       </c>
       <c r="J6">
@@ -708,31 +713,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>6619001657</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.60855000000000004</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.56823599999999996</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0.35397600000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0.31506499999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>1.0709458746013982</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1.7191843514814564</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>1.9315061971339249</v>
       </c>
       <c r="J7">
@@ -740,31 +745,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>23750654538</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1.8121320000000001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1.681997</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1.0629820000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>0.96695699999999996</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>1.0773693413246279</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1.7047626394426245</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>1.8740564471843113</v>
       </c>
       <c r="J8">
@@ -772,31 +777,31 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>79941782408</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>5.4063090000000003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>4.9871129999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>3.1576599999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>2.9911840000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>1.0840558455362852</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>1.7121251179671024</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1.807414388416092</v>
       </c>
       <c r="J9">
@@ -804,325 +809,261 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>252743155375</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15.302667</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14.207231999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9.0417039999999993</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.7856869999999994</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.077104041096816</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.6924538781627889</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.7417723850166755</v>
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>135616399</v>
+      </c>
+      <c r="C10">
+        <v>1.2688E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.1408E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.5209999999999999E-3</v>
+      </c>
+      <c r="F10">
+        <v>6.4749999999999999E-3</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10:G17">C10:C17/D10:D17</f>
+        <v>1.1122019635343618</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:H17">C10:C17/E10:E17</f>
+        <v>1.9457138475693911</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10:I17">C10:C17/F10:F17</f>
+        <v>1.9595366795366795</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>752157328768</v>
-      </c>
-      <c r="C11" s="1">
-        <v>41.447259000000003</v>
-      </c>
-      <c r="D11" s="1">
-        <v>38.747089000000003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>24.837464000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>25.530947999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.0696870415220097</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.668739570191224</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.6234124561297139</v>
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>319298964</v>
+      </c>
+      <c r="C11">
+        <v>2.8527E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.6211000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.4900999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.4919E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.088359848918393</v>
+      </c>
+      <c r="H11">
+        <v>1.9144352728004832</v>
+      </c>
+      <c r="I11">
+        <v>1.9121254775789263</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>135616399</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.2688E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.1408E-2</v>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>745161019</v>
+      </c>
+      <c r="C12">
+        <v>8.6915999999999993E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.5717999999999994E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>6.5209999999999999E-3</v>
+        <v>4.6136999999999997E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>6.4749999999999999E-3</v>
-      </c>
-      <c r="G12" s="1" cm="1">
-        <f t="array" ref="G12:G19">C12:C19/D12:D19</f>
-        <v>1.1122019635343618</v>
-      </c>
-      <c r="H12" s="1" cm="1">
-        <f t="array" ref="H12:H19">C12:C19/E12:E19</f>
-        <v>1.9457138475693911</v>
-      </c>
-      <c r="I12" s="1" cm="1">
-        <f t="array" ref="I12:I19">C12:C19/F12:F19</f>
-        <v>1.9595366795366795</v>
+        <v>4.0584000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.1478908581843155</v>
+      </c>
+      <c r="H12">
+        <v>1.8838676116782624</v>
+      </c>
+      <c r="I12">
+        <v>2.1416321703134238</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>319298964</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.8527E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.6211000000000002E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.4900999999999999E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.4919E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.088359848918393</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.9144352728004832</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1.9121254775789263</v>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1726926306</v>
+      </c>
+      <c r="C13">
+        <v>0.187111</v>
+      </c>
+      <c r="D13">
+        <v>0.16991300000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.11444</v>
+      </c>
+      <c r="F13">
+        <v>0.10974100000000001</v>
+      </c>
+      <c r="G13">
+        <v>1.1012165049172222</v>
+      </c>
+      <c r="H13">
+        <v>1.6350139811254807</v>
+      </c>
+      <c r="I13">
+        <v>1.7050236465860524</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>745161019</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8.6915999999999993E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.5717999999999994E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.4985999999999998E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4.6334E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.1478908581843155</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.9320677544124838</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.8758579013251606</v>
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3964459518</v>
+      </c>
+      <c r="C14">
+        <v>0.50746100000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.45587299999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.30050500000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.26382499999999998</v>
+      </c>
+      <c r="G14">
+        <v>1.1131630958622249</v>
+      </c>
+      <c r="H14">
+        <v>1.6886940317132826</v>
+      </c>
+      <c r="I14">
+        <v>1.9234757888752017</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1726926306</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.187111</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.16991300000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.11444</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.10974100000000001</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.1012165049172222</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.6350139811254807</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1.7050236465860524</v>
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>9055827800</v>
+      </c>
+      <c r="C15">
+        <v>1.218043</v>
+      </c>
+      <c r="D15">
+        <v>1.121899</v>
+      </c>
+      <c r="E15">
+        <v>0.65722499999999995</v>
+      </c>
+      <c r="F15">
+        <v>0.63446400000000003</v>
+      </c>
+      <c r="G15">
+        <v>1.0856975538796274</v>
+      </c>
+      <c r="H15">
+        <v>1.8533120316482181</v>
+      </c>
+      <c r="I15">
+        <v>1.9197984440409541</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3964459518</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.50746100000000005</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.45587299999999997</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.30050500000000002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.26382499999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.1131630958622249</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.6886940317132826</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.9234757888752017</v>
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>20579400628</v>
+      </c>
+      <c r="C16">
+        <v>3.2146029999999999</v>
+      </c>
+      <c r="D16">
+        <v>2.8878569999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.706364</v>
+      </c>
+      <c r="F16">
+        <v>1.652628</v>
+      </c>
+      <c r="G16">
+        <v>1.1131447990672669</v>
+      </c>
+      <c r="H16">
+        <v>1.8838905415257237</v>
+      </c>
+      <c r="I16">
+        <v>1.9451461550935842</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9055827800</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.218043</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.121899</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.65722499999999995</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.63446400000000003</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.0856975538796274</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.8533120316482181</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.9197984440409541</v>
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>46556649365</v>
+      </c>
+      <c r="C17">
+        <v>8.3683560000000003</v>
+      </c>
+      <c r="D17">
+        <v>7.4754639999999997</v>
+      </c>
+      <c r="E17">
+        <v>4.359883</v>
+      </c>
+      <c r="F17">
+        <v>4.2648229999999998</v>
+      </c>
+      <c r="G17">
+        <v>1.1194430205268864</v>
+      </c>
+      <c r="H17">
+        <v>1.9193992132357682</v>
+      </c>
+      <c r="I17">
+        <v>1.9621813144414202</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20579400628</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.2146029999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.8878569999999999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.706364</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.652628</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.1131447990672669</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.8838905415257237</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.9451461550935842</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>46556649365</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8.3683560000000003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7.4754639999999997</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4.359883</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4.2648229999999998</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.1194430205268864</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.9193992132357682</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.9621813144414202</v>
-      </c>
-      <c r="J19">
         <v>1</v>
       </c>
     </row>
@@ -1137,7 +1078,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,26 +1190,26 @@
       <c r="B4">
         <v>95652855</v>
       </c>
-      <c r="C4">
-        <v>2.0709999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.3151000000000001E-2</v>
-      </c>
-      <c r="E4">
-        <v>8.0070000000000002E-3</v>
-      </c>
-      <c r="F4">
-        <v>1.2272E-2</v>
+      <c r="C4" s="1">
+        <v>2.5590999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2459E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3488999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2814000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>0.89456178998747349</v>
+        <v>1.1394541163898659</v>
       </c>
       <c r="H4">
-        <v>2.5864868240289747</v>
+        <v>1.8971754763140336</v>
       </c>
       <c r="I4">
-        <v>1.6875814863102998</v>
+        <v>1.9971125331668487</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1484,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F68348F-F617-42F7-9E16-BE1BC6A0DACD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1602,20 +1543,20 @@
       <c r="D4">
         <v>7.5717999999999994E-2</v>
       </c>
-      <c r="E4">
-        <v>4.4985999999999998E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.6334E-2</v>
+      <c r="E4" s="1">
+        <v>4.6136999999999997E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0584000000000002E-2</v>
       </c>
       <c r="G4">
         <v>1.1478908581843155</v>
       </c>
       <c r="H4">
-        <v>1.9320677544124838</v>
+        <v>1.8838676116782624</v>
       </c>
       <c r="I4">
-        <v>1.8758579013251606</v>
+        <v>2.1416321703134238</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1775,7 +1716,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-G500.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong-G500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953AB22-E664-4991-BC36-B0FB5BA390E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3A2F0-18D9-4B6E-9BE9-44DA2E294ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3180" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="4" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7EDBBF-418F-4CF1-A20E-A97D92075551}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,16 +556,16 @@
         <v>3966418</v>
       </c>
       <c r="C2">
-        <v>1.289E-3</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="D2">
-        <v>1.114E-3</v>
+        <v>1.1139999999999999</v>
       </c>
       <c r="E2">
-        <v>5.71E-4</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F2">
-        <v>5.7300000000000005E-4</v>
+        <v>0.57300000000000006</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G9">C2:C9/D2:D9</f>
@@ -592,16 +592,16 @@
         <v>20219754</v>
       </c>
       <c r="C3">
-        <v>5.0740000000000004E-3</v>
+        <v>5.0740000000000007</v>
       </c>
       <c r="D3">
-        <v>4.4770000000000001E-3</v>
+        <v>4.4770000000000003</v>
       </c>
       <c r="E3">
-        <v>2.5019999999999999E-3</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="F3">
-        <v>2.294E-3</v>
+        <v>2.294</v>
       </c>
       <c r="G3">
         <v>1.1333482242573152</v>
@@ -610,7 +610,7 @@
         <v>2.0279776179056759</v>
       </c>
       <c r="I3">
-        <v>2.2118570183086312</v>
+        <v>2.2118570183086317</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -624,16 +624,16 @@
         <v>95652855</v>
       </c>
       <c r="C4" s="1">
-        <v>2.5590999999999999E-2</v>
+        <v>25.590999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>2.2459E-2</v>
+        <v>22.459</v>
       </c>
       <c r="E4" s="1">
-        <v>1.3488999999999999E-2</v>
+        <v>13.488999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>1.2814000000000001E-2</v>
+        <v>12.814</v>
       </c>
       <c r="G4">
         <v>1.1394541163898659</v>
@@ -642,7 +642,7 @@
         <v>1.8971754763140336</v>
       </c>
       <c r="I4">
-        <v>1.9971125331668487</v>
+        <v>1.9971125331668484</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -656,25 +656,25 @@
         <v>420642337</v>
       </c>
       <c r="C5">
-        <v>7.0523000000000002E-2</v>
+        <v>70.522999999999996</v>
       </c>
       <c r="D5">
-        <v>6.0366999999999997E-2</v>
+        <v>60.366999999999997</v>
       </c>
       <c r="E5">
-        <v>3.8386999999999998E-2</v>
+        <v>38.387</v>
       </c>
       <c r="F5">
-        <v>3.3562000000000002E-2</v>
+        <v>33.562000000000005</v>
       </c>
       <c r="G5">
         <v>1.1682376132655259</v>
       </c>
       <c r="H5">
-        <v>1.8371584130044027</v>
+        <v>1.8371584130044023</v>
       </c>
       <c r="I5">
-        <v>2.1012752517728384</v>
+        <v>2.1012752517728379</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>1726926306</v>
       </c>
       <c r="C6">
-        <v>0.20536299999999999</v>
+        <v>205.363</v>
       </c>
       <c r="D6">
-        <v>0.179816</v>
+        <v>179.816</v>
       </c>
       <c r="E6">
-        <v>0.11662</v>
+        <v>116.62</v>
       </c>
       <c r="F6">
-        <v>0.110831</v>
+        <v>110.831</v>
       </c>
       <c r="G6">
-        <v>1.142073007963696</v>
+        <v>1.1420730079636963</v>
       </c>
       <c r="H6">
-        <v>1.7609586691819583</v>
+        <v>1.7609586691819585</v>
       </c>
       <c r="I6">
         <v>1.8529382573467712</v>
@@ -720,22 +720,22 @@
         <v>6619001657</v>
       </c>
       <c r="C7">
-        <v>0.60855000000000004</v>
+        <v>608.55000000000007</v>
       </c>
       <c r="D7">
-        <v>0.56823599999999996</v>
+        <v>568.23599999999999</v>
       </c>
       <c r="E7">
-        <v>0.35397600000000001</v>
+        <v>353.976</v>
       </c>
       <c r="F7">
-        <v>0.31506499999999998</v>
+        <v>315.065</v>
       </c>
       <c r="G7">
         <v>1.0709458746013982</v>
       </c>
       <c r="H7">
-        <v>1.7191843514814564</v>
+        <v>1.7191843514814567</v>
       </c>
       <c r="I7">
         <v>1.9315061971339249</v>
@@ -752,22 +752,22 @@
         <v>23750654538</v>
       </c>
       <c r="C8">
-        <v>1.8121320000000001</v>
+        <v>1812.1320000000001</v>
       </c>
       <c r="D8">
-        <v>1.681997</v>
+        <v>1681.9970000000001</v>
       </c>
       <c r="E8">
-        <v>1.0629820000000001</v>
+        <v>1062.9820000000002</v>
       </c>
       <c r="F8">
-        <v>0.96695699999999996</v>
+        <v>966.95699999999999</v>
       </c>
       <c r="G8">
-        <v>1.0773693413246279</v>
+        <v>1.0773693413246277</v>
       </c>
       <c r="H8">
-        <v>1.7047626394426245</v>
+        <v>1.7047626394426243</v>
       </c>
       <c r="I8">
         <v>1.8740564471843113</v>
@@ -784,16 +784,16 @@
         <v>79941782408</v>
       </c>
       <c r="C9">
-        <v>5.4063090000000003</v>
+        <v>5406.3090000000002</v>
       </c>
       <c r="D9">
-        <v>4.9871129999999999</v>
+        <v>4987.1130000000003</v>
       </c>
       <c r="E9">
-        <v>3.1576599999999999</v>
+        <v>3157.66</v>
       </c>
       <c r="F9">
-        <v>2.9911840000000001</v>
+        <v>2991.1840000000002</v>
       </c>
       <c r="G9">
         <v>1.0840558455362852</v>
@@ -816,16 +816,16 @@
         <v>135616399</v>
       </c>
       <c r="C10">
-        <v>1.2688E-2</v>
+        <v>12.687999999999999</v>
       </c>
       <c r="D10">
-        <v>1.1408E-2</v>
+        <v>11.407999999999999</v>
       </c>
       <c r="E10">
-        <v>6.5209999999999999E-3</v>
+        <v>6.5209999999999999</v>
       </c>
       <c r="F10">
-        <v>6.4749999999999999E-3</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10:G17">C10:C17/D10:D17</f>
@@ -851,16 +851,16 @@
         <v>319298964</v>
       </c>
       <c r="C11">
-        <v>2.8527E-2</v>
+        <v>28.527000000000001</v>
       </c>
       <c r="D11">
-        <v>2.6211000000000002E-2</v>
+        <v>26.211000000000002</v>
       </c>
       <c r="E11">
-        <v>1.4900999999999999E-2</v>
+        <v>14.901</v>
       </c>
       <c r="F11">
-        <v>1.4919E-2</v>
+        <v>14.919</v>
       </c>
       <c r="G11">
         <v>1.088359848918393</v>
@@ -883,19 +883,19 @@
         <v>745161019</v>
       </c>
       <c r="C12">
-        <v>8.6915999999999993E-2</v>
+        <v>86.915999999999997</v>
       </c>
       <c r="D12">
-        <v>7.5717999999999994E-2</v>
+        <v>75.717999999999989</v>
       </c>
       <c r="E12" s="1">
-        <v>4.6136999999999997E-2</v>
+        <v>46.137</v>
       </c>
       <c r="F12" s="1">
-        <v>4.0584000000000002E-2</v>
+        <v>40.584000000000003</v>
       </c>
       <c r="G12">
-        <v>1.1478908581843155</v>
+        <v>1.1478908581843157</v>
       </c>
       <c r="H12">
         <v>1.8838676116782624</v>
@@ -915,22 +915,22 @@
         <v>1726926306</v>
       </c>
       <c r="C13">
-        <v>0.187111</v>
+        <v>187.11099999999999</v>
       </c>
       <c r="D13">
-        <v>0.16991300000000001</v>
+        <v>169.91300000000001</v>
       </c>
       <c r="E13">
-        <v>0.11444</v>
+        <v>114.44</v>
       </c>
       <c r="F13">
-        <v>0.10974100000000001</v>
+        <v>109.741</v>
       </c>
       <c r="G13">
         <v>1.1012165049172222</v>
       </c>
       <c r="H13">
-        <v>1.6350139811254807</v>
+        <v>1.6350139811254805</v>
       </c>
       <c r="I13">
         <v>1.7050236465860524</v>
@@ -947,22 +947,22 @@
         <v>3964459518</v>
       </c>
       <c r="C14">
-        <v>0.50746100000000005</v>
+        <v>507.46100000000007</v>
       </c>
       <c r="D14">
-        <v>0.45587299999999997</v>
+        <v>455.87299999999999</v>
       </c>
       <c r="E14">
-        <v>0.30050500000000002</v>
+        <v>300.505</v>
       </c>
       <c r="F14">
-        <v>0.26382499999999998</v>
+        <v>263.82499999999999</v>
       </c>
       <c r="G14">
         <v>1.1131630958622249</v>
       </c>
       <c r="H14">
-        <v>1.6886940317132826</v>
+        <v>1.6886940317132828</v>
       </c>
       <c r="I14">
         <v>1.9234757888752017</v>
@@ -979,25 +979,25 @@
         <v>9055827800</v>
       </c>
       <c r="C15">
-        <v>1.218043</v>
+        <v>1218.0429999999999</v>
       </c>
       <c r="D15">
-        <v>1.121899</v>
+        <v>1121.8989999999999</v>
       </c>
       <c r="E15">
-        <v>0.65722499999999995</v>
+        <v>657.22499999999991</v>
       </c>
       <c r="F15">
-        <v>0.63446400000000003</v>
+        <v>634.46400000000006</v>
       </c>
       <c r="G15">
         <v>1.0856975538796274</v>
       </c>
       <c r="H15">
-        <v>1.8533120316482181</v>
+        <v>1.8533120316482179</v>
       </c>
       <c r="I15">
-        <v>1.9197984440409541</v>
+        <v>1.9197984440409539</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>20579400628</v>
       </c>
       <c r="C16">
-        <v>3.2146029999999999</v>
+        <v>3214.6030000000001</v>
       </c>
       <c r="D16">
-        <v>2.8878569999999999</v>
+        <v>2887.857</v>
       </c>
       <c r="E16">
-        <v>1.706364</v>
+        <v>1706.364</v>
       </c>
       <c r="F16">
-        <v>1.652628</v>
+        <v>1652.6279999999999</v>
       </c>
       <c r="G16">
         <v>1.1131447990672669</v>
@@ -1029,7 +1029,7 @@
         <v>1.8838905415257237</v>
       </c>
       <c r="I16">
-        <v>1.9451461550935842</v>
+        <v>1.9451461550935845</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1043,22 +1043,22 @@
         <v>46556649365</v>
       </c>
       <c r="C17">
-        <v>8.3683560000000003</v>
+        <v>8368.3559999999998</v>
       </c>
       <c r="D17">
-        <v>7.4754639999999997</v>
+        <v>7475.4639999999999</v>
       </c>
       <c r="E17">
-        <v>4.359883</v>
+        <v>4359.8829999999998</v>
       </c>
       <c r="F17">
-        <v>4.2648229999999998</v>
+        <v>4264.8229999999994</v>
       </c>
       <c r="G17">
         <v>1.1194430205268864</v>
       </c>
       <c r="H17">
-        <v>1.9193992132357682</v>
+        <v>1.919399213235768</v>
       </c>
       <c r="I17">
         <v>1.9621813144414202</v>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F68348F-F617-42F7-9E16-BE1BC6A0DACD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
